--- a/network_refefo2.xlsx
+++ b/network_refefo2.xlsx
@@ -2825,7 +2825,7 @@
         <v>13</v>
       </c>
       <c r="E73" s="22">
-        <v>-30.6</v>
+        <v>-31.0</v>
       </c>
       <c r="F73" s="22">
         <v>-66.0</v>
